--- a/RESULTS/WhichHand.xlsx
+++ b/RESULTS/WhichHand.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20867f98547c38/Documents/University/2022/SEMESTER 2/ELEN4002_EIEInvestigation/REPO/EIE-Investigation-22G05/RESULTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6A3711BD-B310-44A3-B424-3B05766C2B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{6A3711BD-B310-44A3-B424-3B05766C2B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A9535E9-76EF-4CAA-B2DC-8693D9FE979A}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-4650" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WhichHand" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,13 +561,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,37 +614,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1042,11 +1024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+      <selection activeCell="T128" sqref="T128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,7 +4385,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>123</v>
       </c>
@@ -4429,7 +4411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>124</v>
       </c>
@@ -4455,7 +4437,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>125</v>
       </c>
@@ -4487,7 +4469,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>126</v>
       </c>
@@ -4519,7 +4501,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>127</v>
       </c>
@@ -4545,34 +4527,34 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="F118" s="1" t="s">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="F118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="1" t="s">
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="P118" s="1" t="s">
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="P118" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>7</v>
       </c>
@@ -4595,7 +4577,6 @@
         <f>H119/H121*100</f>
         <v>36.363636363636367</v>
       </c>
-      <c r="K119" s="2"/>
       <c r="L119" t="s">
         <v>7</v>
       </c>
@@ -4619,7 +4600,7 @@
         <v>60.714285714285708</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>3</v>
       </c>
@@ -4665,7 +4646,7 @@
         <v>39.285714285714285</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>8</v>
       </c>
@@ -4695,7 +4676,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U122">
+        <f>R121/C121</f>
+        <v>0.2413793103448276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>6</v>
       </c>
@@ -4741,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>5</v>
       </c>
@@ -4787,7 +4774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -4833,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>7</v>
       </c>
@@ -4879,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D127">
         <f>SUM(D123:D126)</f>
         <v>99.999999999999986</v>
@@ -4908,22 +4895,22 @@
     <mergeCell ref="F118:I118"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G117 G119:G1048576">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="neith">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="neith">
       <formula>NOT(ISERROR(SEARCH("neith",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B127">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="neith">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="neith">
       <formula>NOT(ISERROR(SEARCH("neith",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L127">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="neith">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="neith">
       <formula>NOT(ISERROR(SEARCH("neith",L120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L117 L120:L1048576">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
